--- a/Compiled_experiment_data.xlsx
+++ b/Compiled_experiment_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923204D-A06C-5B4E-A68A-6FC5262B7FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09B5C7-10C4-3F48-A4FA-5D010F3EB329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13200" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
+    <workbookView xWindow="480" yWindow="820" windowWidth="25040" windowHeight="13200" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -104,9 +104,6 @@
     <t>Hatched</t>
   </si>
   <si>
-    <t>Surival_60</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Asynch</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Synch</t>
-  </si>
-  <si>
     <t>V1,V7,V3,V6,U5,V2,U10,V4,U8</t>
   </si>
   <si>
@@ -561,6 +552,15 @@
   </si>
   <si>
     <t>W2,W6,AG2,AG4,AJ6</t>
+  </si>
+  <si>
+    <t>Asynchronous</t>
+  </si>
+  <si>
+    <t>Synchronous</t>
+  </si>
+  <si>
+    <t>Survival_60</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,7 +987,8 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
@@ -1067,10 +1068,10 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1078,10 +1079,10 @@
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="3">
         <v>43334</v>
@@ -1091,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H2" s="4">
         <v>43346</v>
@@ -1100,16 +1101,16 @@
         <v>43350</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -1124,13 +1125,13 @@
         <v>6</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U2" s="1">
         <v>0</v>
@@ -1139,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1147,10 +1148,10 @@
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>43330</v>
@@ -1160,25 +1161,25 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>43346</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -1193,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -1208,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1216,10 +1217,10 @@
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3">
         <v>43348</v>
@@ -1229,25 +1230,25 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H4" s="4">
         <v>43356</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
@@ -1277,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1285,10 +1286,10 @@
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
         <v>43330</v>
@@ -1298,25 +1299,25 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1351,10 +1352,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3">
         <v>43356</v>
@@ -1364,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H6" s="4">
         <v>43360</v>
@@ -1373,16 +1374,16 @@
         <v>43373</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -1412,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -1420,10 +1421,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>43358</v>
@@ -1433,25 +1434,25 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H7" s="4">
         <v>43360</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -1466,13 +1467,13 @@
         <v>9</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -1486,10 +1487,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3">
         <v>43351</v>
@@ -1499,25 +1500,25 @@
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H8" s="4">
         <v>43360</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -1547,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1555,10 +1556,10 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3">
         <v>43355</v>
@@ -1568,25 +1569,25 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4">
         <v>43360</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -1601,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -1621,10 +1622,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3">
         <v>43362</v>
@@ -1634,25 +1635,25 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -1687,10 +1688,10 @@
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3">
         <v>43350</v>
@@ -1700,25 +1701,25 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -1753,10 +1754,10 @@
         <v>2018</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3">
         <v>43341</v>
@@ -1766,25 +1767,25 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H12" s="4">
         <v>43344</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
@@ -1819,10 +1820,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3">
         <v>43366</v>
@@ -1832,25 +1833,25 @@
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -1885,10 +1886,10 @@
         <v>2018</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4">
         <v>43341</v>
@@ -1898,25 +1899,25 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H14" s="4">
         <v>43344</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -1946,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="W14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1954,10 +1955,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3">
         <v>43330</v>
@@ -1967,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H15" s="4">
         <v>43342</v>
@@ -1976,16 +1977,16 @@
         <v>43344</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N15" s="1">
         <v>2</v>
@@ -2015,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2023,10 +2024,10 @@
         <v>2018</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3">
         <v>43333</v>
@@ -2036,25 +2037,25 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H16" s="4">
         <v>43340</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -2084,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -2092,10 +2093,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>43347</v>
@@ -2105,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H17" s="4">
         <v>43356</v>
@@ -2114,16 +2115,16 @@
         <v>43360</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
@@ -2158,10 +2159,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>43347</v>
@@ -2171,25 +2172,25 @@
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H18" s="4">
         <v>43360</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -2224,10 +2225,10 @@
         <v>2018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3">
         <v>43348</v>
@@ -2237,25 +2238,25 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H19" s="4">
         <v>43360</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7">
         <v>1</v>
@@ -2290,10 +2291,10 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="3">
         <v>43360</v>
@@ -2303,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4">
         <v>43365</v>
@@ -2312,16 +2313,16 @@
         <v>43370</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N20" s="7">
         <v>2</v>
@@ -2354,10 +2355,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="3">
         <v>43360</v>
@@ -2367,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H21" s="4">
         <v>43365</v>
@@ -2376,16 +2377,16 @@
         <v>43368</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21" s="1">
         <v>2</v>
@@ -2420,10 +2421,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" s="3">
         <v>43359</v>
@@ -2433,25 +2434,25 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H22" s="4">
         <v>43370</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N22" s="7">
         <v>1</v>
@@ -2481,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
@@ -2489,10 +2490,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3">
         <v>43350</v>
@@ -2502,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H23" s="4">
         <v>43358</v>
@@ -2511,16 +2512,16 @@
         <v>43360</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N23" s="1">
         <v>2</v>
@@ -2555,10 +2556,10 @@
         <v>2018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4">
         <v>43362</v>
@@ -2568,25 +2569,25 @@
         <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H24" s="4">
         <v>43365</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2621,10 +2622,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3">
         <v>43360</v>
@@ -2634,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H25" s="4">
         <v>43362</v>
@@ -2646,13 +2647,13 @@
         <v>43373</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N25" s="7">
         <v>3</v>
@@ -2687,10 +2688,10 @@
         <v>2023</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="11">
         <v>45157</v>
@@ -2702,25 +2703,25 @@
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H26" s="4">
         <v>45173</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N26" s="7">
         <v>1</v>
@@ -2758,10 +2759,10 @@
         <v>2023</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11">
         <v>45157</v>
@@ -2773,25 +2774,25 @@
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H27" s="4">
         <v>45173</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N27" s="7">
         <v>1</v>
@@ -2829,10 +2830,10 @@
         <v>2023</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" s="11">
         <v>45158</v>
@@ -2842,25 +2843,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28" s="4">
         <v>45173</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N28" s="7">
         <v>1</v>
@@ -2898,10 +2899,10 @@
         <v>2023</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="11">
         <v>45158</v>
@@ -2913,25 +2914,25 @@
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" s="4">
         <v>45173</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N29" s="7">
         <v>1</v>
@@ -2968,10 +2969,10 @@
         <v>2023</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="11">
         <v>45170</v>
@@ -2983,25 +2984,25 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H30" s="4">
         <v>45184</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N30" s="7">
         <v>1</v>
@@ -3038,10 +3039,10 @@
         <v>2023</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="4">
         <v>45176</v>
@@ -3053,25 +3054,25 @@
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H31" s="4">
         <v>45184</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N31" s="7">
         <v>1</v>
@@ -3108,10 +3109,10 @@
         <v>2023</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4">
         <v>45174</v>
@@ -3123,25 +3124,25 @@
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H32" s="4">
         <v>45184</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N32" s="7">
         <v>1</v>
@@ -3178,10 +3179,10 @@
         <v>2023</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="11">
         <v>45198</v>
@@ -3193,25 +3194,25 @@
         <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H33" s="4">
         <v>45206</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N33" s="7">
         <v>1</v>
@@ -3247,40 +3248,40 @@
         <v>2023</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D34" s="11">
         <v>45204</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1">
         <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H34" s="4">
         <v>45206</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N34" s="7">
         <v>1</v>
@@ -3316,40 +3317,40 @@
         <v>2023</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4">
         <v>45204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H35" s="4">
         <v>45206</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N35" s="7">
         <v>1</v>
@@ -3364,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U35" s="1">
         <v>0</v>
@@ -3385,40 +3386,40 @@
         <v>2023</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D36" s="11">
         <v>45211</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H36" s="4">
         <v>45221</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N36" s="7">
         <v>1</v>
@@ -3433,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S36" s="4">
         <v>45236</v>
@@ -3457,40 +3458,40 @@
         <v>2023</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D37" s="11">
         <v>45216</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H37" s="4">
         <v>45221</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N37" s="7">
         <v>1</v>
@@ -3505,13 +3506,13 @@
         <v>7</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U37" s="1">
         <v>0</v>
@@ -3526,10 +3527,10 @@
         <v>2023</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D38" s="11">
         <v>45219</v>
@@ -3541,25 +3542,25 @@
         <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H38" s="4">
         <v>45221</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N38" s="7">
         <v>1</v>
@@ -3595,10 +3596,10 @@
         <v>2024</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D39" s="17">
         <v>45528</v>
@@ -3608,25 +3609,25 @@
         <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H39" s="4">
         <v>45541</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N39" s="7">
         <v>1</v>
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
@@ -3664,10 +3665,10 @@
         <v>2024</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D40" s="17">
         <v>45527</v>
@@ -3679,25 +3680,25 @@
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H40" s="4">
         <v>45541</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N40" s="7">
         <v>1</v>
@@ -3732,10 +3733,10 @@
         <v>2024</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" s="17">
         <v>45528</v>
@@ -3745,25 +3746,25 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H41" s="4">
         <v>45541</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N41" s="7">
         <v>1</v>
@@ -3796,10 +3797,10 @@
         <v>2024</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="4">
         <v>45543</v>
@@ -3811,25 +3812,25 @@
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H42" s="4">
         <v>45562</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N42" s="7">
         <v>1</v>
@@ -3864,10 +3865,10 @@
         <v>2024</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" s="4">
         <v>45556</v>
@@ -3879,25 +3880,25 @@
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="H43" s="4">
         <v>45562</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N43" s="7">
         <v>1</v>
@@ -3932,10 +3933,10 @@
         <v>2024</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4">
         <v>45550</v>
@@ -3944,25 +3945,25 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H44" s="4">
         <v>45562</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N44" s="7">
         <v>1</v>
@@ -4387,7 +4388,7 @@
       <c r="B145" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
+  <autoFilter ref="A1:AJ44" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_experiment_data.xlsx
+++ b/Compiled_experiment_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09B5C7-10C4-3F48-A4FA-5D010F3EB329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18335A50-EECB-3843-A233-26A9D6D56167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="820" windowWidth="25040" windowHeight="13200" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="198">
   <si>
     <t>Year</t>
   </si>
@@ -561,6 +561,145 @@
   </si>
   <si>
     <t>Survival_60</t>
+  </si>
+  <si>
+    <t>Banded_birds</t>
+  </si>
+  <si>
+    <t>XB/XX (no metal band)</t>
+  </si>
+  <si>
+    <t>RW/YG-M, YG/BR-M, YR/BN-M, WB/BG-M, YN/GY-M, YB/NR-M</t>
+  </si>
+  <si>
+    <t>BY/RN-M, YG/NB-M, YY-M/YR, BN/NN-M</t>
+  </si>
+  <si>
+    <t>BY/WW?</t>
+  </si>
+  <si>
+    <t>GB/RG</t>
+  </si>
+  <si>
+    <t>R-B/GW-M, RR/WW</t>
+  </si>
+  <si>
+    <t>BG/RN-M</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>YR/??</t>
+  </si>
+  <si>
+    <t>NN/BB, RG/NB, YY/NG + 7 unbanded adults. WB/GB (juv), NW/RR (juv), NY/NB (juv), RN/NY-M (juv)</t>
+  </si>
+  <si>
+    <t>BN/BW</t>
+  </si>
+  <si>
+    <t>YY/WY, YG/GB, RW/YY-m</t>
+  </si>
+  <si>
+    <r>
+      <t>NW/G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N; YR/RB; GN/NW; GG/YN</t>
+    </r>
+  </si>
+  <si>
+    <t>GR/YR; B/BG-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-BB/WR </t>
+  </si>
+  <si>
+    <t>R/- no metal band</t>
+  </si>
+  <si>
+    <t>WY/YW</t>
+  </si>
+  <si>
+    <t>WB/BN</t>
+  </si>
+  <si>
+    <t>M-YN/WN; BR/BR(unsure about blue bands)</t>
+  </si>
+  <si>
+    <t>BB/WN-m</t>
+  </si>
+  <si>
+    <t>RY/GW; M-YR/BY</t>
+  </si>
+  <si>
+    <t>GN/BR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> M-/G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y/YN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -570,7 +709,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,6 +726,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +808,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,11 +1123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}">
-  <dimension ref="A1:AJ145"/>
+  <dimension ref="A1:AK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,22 +1136,22 @@
     <col min="3" max="3" width="5.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" customWidth="1"/>
-    <col min="20" max="20" width="7.5" customWidth="1"/>
-    <col min="21" max="21" width="6.6640625" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,55 +1174,58 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>173</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -1094,56 +1245,57 @@
       <c r="G2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1"/>
+      <c r="I2" s="4">
         <v>43346</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>43350</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>6</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="1">
-        <v>0</v>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1163,29 +1315,27 @@
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="4">
         <v>43346</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -1193,8 +1343,8 @@
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>24</v>
+      <c r="R3" s="1">
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>24</v>
@@ -1202,17 +1352,20 @@
       <c r="T3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="1">
-        <v>0</v>
+      <c r="U3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -1232,56 +1385,59 @@
       <c r="G4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="4">
         <v>43356</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>7</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>43374</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>43380</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>4</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>7</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>3</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
@@ -1301,8 +1457,8 @@
       <c r="G5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
+      <c r="H5" t="s">
+        <v>187</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -1316,38 +1472,41 @@
       <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>39</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>7</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="1">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4">
         <v>43363</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <v>43367</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>7</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -1367,56 +1526,57 @@
       <c r="G6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1"/>
+      <c r="I6" s="4">
         <v>43360</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>43373</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>4</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>9</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>43373</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <v>43345</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>5</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>2</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -1436,53 +1596,54 @@
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="4">
         <v>43360</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>6</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>9</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="S7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="1">
-        <v>0</v>
+      <c r="U7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2018</v>
       </c>
@@ -1502,12 +1663,10 @@
       <c r="G8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="4">
         <v>43360</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1517,41 +1676,44 @@
       <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>3</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>4</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>7</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>43366</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>43375</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>5</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>6</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>3</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
@@ -1571,12 +1733,10 @@
       <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="4">
         <v>43360</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,38 +1746,41 @@
       <c r="L9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>5</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="S9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="1">
-        <v>0</v>
+      <c r="U9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -1637,9 +1800,7 @@
       <c r="G10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1652,38 +1813,41 @@
       <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>8</v>
       </c>
       <c r="Q10" s="1">
         <v>8</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="1">
+        <v>8</v>
+      </c>
+      <c r="S10" s="4">
         <v>43387</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>43393</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>5</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>7</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2018</v>
       </c>
@@ -1703,8 +1867,8 @@
       <c r="G11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
+      <c r="H11" t="s">
+        <v>192</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>24</v>
@@ -1718,38 +1882,41 @@
       <c r="L11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>6</v>
       </c>
       <c r="Q11" s="1">
         <v>6</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+      <c r="S11" s="8">
         <v>43371</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>43374</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>3</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>6</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -1769,53 +1936,54 @@
       <c r="G12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1"/>
+      <c r="I12" s="4">
         <v>43344</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>1</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>5</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>7</v>
       </c>
-      <c r="R12" s="8">
+      <c r="S12" s="8">
         <v>43343</v>
       </c>
-      <c r="S12" s="8">
+      <c r="T12" s="8">
         <v>43350</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>5</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>6</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2018</v>
       </c>
@@ -1835,9 +2003,7 @@
       <c r="G13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1850,38 +2016,41 @@
       <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>7</v>
       </c>
       <c r="Q13" s="1">
         <v>7</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="1">
+        <v>7</v>
+      </c>
+      <c r="S13" s="8">
         <v>43391</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>43393</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>4</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>5</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2018</v>
       </c>
@@ -1901,12 +2070,12 @@
       <c r="G14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="4">
         <v>43344</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,41 +2085,44 @@
       <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>1</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>6</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>43344</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <v>43345</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>4</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>5</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>3</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2018</v>
       </c>
@@ -1970,56 +2142,59 @@
       <c r="G15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="4">
         <v>43342</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>43344</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>7</v>
       </c>
       <c r="Q15" s="1">
         <v>7</v>
       </c>
-      <c r="R15" s="8">
-        <v>43359</v>
+      <c r="R15" s="1">
+        <v>7</v>
       </c>
       <c r="S15" s="8">
         <v>43359</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="8">
+        <v>43359</v>
+      </c>
+      <c r="U15" s="1">
         <v>10</v>
-      </c>
-      <c r="U15" s="1">
-        <v>2</v>
       </c>
       <c r="V15" s="1">
         <v>2</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="1">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2018</v>
       </c>
@@ -2039,13 +2214,13 @@
       <c r="G16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="4">
         <v>43340</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2054,41 +2229,44 @@
       <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>2</v>
-      </c>
-      <c r="P16" s="1">
-        <v>8</v>
       </c>
       <c r="Q16" s="1">
         <v>8</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="1">
+        <v>8</v>
+      </c>
+      <c r="S16" s="8">
         <v>43340</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>43354</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>14</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>6</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>2</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2018</v>
       </c>
@@ -2108,53 +2286,54 @@
       <c r="G17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="1"/>
+      <c r="I17" s="4">
         <v>43356</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>43360</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="M17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
         <v>83</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>7</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>3</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>10</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>43377</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>43380</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>9</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>5</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -2174,13 +2353,11 @@
       <c r="G18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1"/>
+      <c r="I18" s="4">
         <v>43360</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2189,38 +2366,41 @@
       <c r="L18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>1</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>3</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>5</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>8</v>
       </c>
-      <c r="R18" s="8">
+      <c r="S18" s="8">
         <v>43369</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>43382</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>12</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>3</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2018</v>
       </c>
@@ -2240,13 +2420,13 @@
       <c r="G19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="4">
         <v>43360</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2255,38 +2435,41 @@
       <c r="L19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>1</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>3</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>5</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>9</v>
       </c>
-      <c r="R19" s="8">
+      <c r="S19" s="8">
         <v>43368</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>43377</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>12</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>4</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -2306,51 +2489,54 @@
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="4">
         <v>43365</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>43370</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
         <v>93</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>2</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>5</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>6</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>43374</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>43378</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>5</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>4</v>
       </c>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2018</v>
       </c>
@@ -2370,53 +2556,56 @@
       <c r="G21" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="4">
         <v>43365</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>43368</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="K21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
         <v>97</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>2</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>3</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>4</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>7</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>43373</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>43385</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>8</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>5</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -2436,56 +2625,57 @@
       <c r="G22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1"/>
+      <c r="I22" s="4">
         <v>43370</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
         <v>100</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>1</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>3</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>9</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>11</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>43383</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>43387</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>10</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>5</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -2505,53 +2695,56 @@
       <c r="G23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="4">
         <v>43358</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>43360</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
         <v>105</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>2</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>6</v>
       </c>
       <c r="Q23" s="1">
         <v>6</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="1">
+        <v>6</v>
+      </c>
+      <c r="S23" s="8">
         <v>43369</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <v>43381</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>12</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>5</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2018</v>
       </c>
@@ -2571,13 +2764,13 @@
       <c r="G24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="4">
         <v>43365</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -2586,38 +2779,41 @@
       <c r="L24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>1</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>3</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>7</v>
       </c>
-      <c r="R24" s="8">
+      <c r="S24" s="8">
         <v>43372</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <v>43381</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>9</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>6</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2018</v>
       </c>
@@ -2637,53 +2833,56 @@
       <c r="G25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="4">
         <v>43362</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>43364</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>43373</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>111</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>112</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="7">
+      <c r="O25" s="7">
         <v>3</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>5</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>6</v>
       </c>
-      <c r="R25" s="8">
+      <c r="S25" s="8">
         <v>43374</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <v>43377</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>15</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>2</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2023</v>
       </c>
@@ -2705,56 +2904,57 @@
       <c r="G26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="1"/>
+      <c r="I26" s="4">
         <v>45173</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>1</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>8</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>8</v>
       </c>
-      <c r="R26" s="12">
+      <c r="S26" s="12">
         <v>45185</v>
       </c>
-      <c r="S26" s="12">
+      <c r="T26" s="12">
         <v>45189</v>
       </c>
-      <c r="T26" s="13">
+      <c r="U26" s="13">
         <v>5</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>4</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>1</v>
       </c>
-      <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
-      <c r="AG26" s="15"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AE26" s="14"/>
+      <c r="AH26" s="15"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2023</v>
       </c>
@@ -2776,56 +2976,57 @@
       <c r="G27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="1"/>
+      <c r="I27" s="4">
         <v>45173</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>1</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>5</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>3</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>8</v>
-      </c>
-      <c r="R27" s="12">
-        <v>45185</v>
       </c>
       <c r="S27" s="12">
         <v>45185</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="12">
+        <v>45185</v>
+      </c>
+      <c r="U27" s="13">
         <v>1</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>1</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>0</v>
       </c>
-      <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
-      <c r="AG27" s="15"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AE27" s="14"/>
+      <c r="AH27" s="15"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2023</v>
       </c>
@@ -2845,56 +3046,59 @@
       <c r="G28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="4">
         <v>45173</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>1</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>5</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>5</v>
       </c>
-      <c r="R28" s="8">
+      <c r="S28" s="8">
         <v>45180</v>
       </c>
-      <c r="S28" s="8">
+      <c r="T28" s="8">
         <v>45182</v>
       </c>
-      <c r="T28" s="13">
+      <c r="U28" s="13">
         <v>3</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>4</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>0</v>
       </c>
-      <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
-      <c r="AG28" s="15"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AE28" s="14"/>
+      <c r="AH28" s="15"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2023</v>
       </c>
@@ -2916,55 +3120,58 @@
       <c r="G29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="4">
         <v>45173</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
         <v>124</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>1</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>8</v>
       </c>
       <c r="Q29" s="1">
         <v>8</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="1">
+        <v>8</v>
+      </c>
+      <c r="S29" s="8">
         <v>45173</v>
       </c>
-      <c r="S29" s="8">
+      <c r="T29" s="8">
         <v>45183</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>11</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>5</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>4</v>
       </c>
-      <c r="AC29" s="14"/>
-      <c r="AG29" s="15"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD29" s="14"/>
+      <c r="AH29" s="15"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2023</v>
       </c>
@@ -2986,55 +3193,56 @@
       <c r="G30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="1"/>
+      <c r="I30" s="4">
         <v>45184</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="K30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>5</v>
       </c>
       <c r="P30" s="1">
         <v>5</v>
       </c>
       <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="1">
         <v>10</v>
       </c>
-      <c r="R30" s="8">
+      <c r="S30" s="8">
         <v>45199</v>
       </c>
-      <c r="S30" s="8">
+      <c r="T30" s="8">
         <v>45203</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>5</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>3</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>0</v>
       </c>
-      <c r="AC30" s="14"/>
-      <c r="AG30" s="15"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD30" s="14"/>
+      <c r="AH30" s="15"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2023</v>
       </c>
@@ -3056,55 +3264,56 @@
       <c r="G31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="1"/>
+      <c r="I31" s="4">
         <v>45184</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
         <v>129</v>
       </c>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>1</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>6</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>3</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>9</v>
       </c>
-      <c r="R31" s="12">
+      <c r="S31" s="12">
         <v>45202</v>
       </c>
-      <c r="S31" s="12">
+      <c r="T31" s="12">
         <v>45207</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>6</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>3</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>0</v>
       </c>
-      <c r="AC31" s="14"/>
-      <c r="AG31" s="15"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AD31" s="14"/>
+      <c r="AH31" s="15"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2023</v>
       </c>
@@ -3126,55 +3335,58 @@
       <c r="G32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="4">
         <v>45184</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
         <v>131</v>
       </c>
-      <c r="N32" s="7">
+      <c r="O32" s="7">
         <v>1</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>9</v>
       </c>
       <c r="Q32" s="1">
         <v>9</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="1">
+        <v>9</v>
+      </c>
+      <c r="S32" s="12">
         <v>45201</v>
       </c>
-      <c r="S32" s="12">
+      <c r="T32" s="12">
         <v>45203</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>4</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>7</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>0</v>
       </c>
-      <c r="AC32" s="14"/>
-      <c r="AG32" s="15"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AD32" s="14"/>
+      <c r="AH32" s="15"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2023</v>
       </c>
@@ -3196,54 +3408,55 @@
       <c r="G33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="1"/>
+      <c r="I33" s="4">
         <v>45206</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="7">
+      <c r="O33" s="7">
         <v>1</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>2</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>7</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>45224</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <v>45226</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>3</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>4</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>0</v>
       </c>
-      <c r="AG33" s="15"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH33" s="15"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -3265,54 +3478,57 @@
       <c r="G34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="4">
         <v>45206</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
         <v>138</v>
       </c>
-      <c r="N34" s="7">
+      <c r="O34" s="7">
         <v>1</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>5</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>3</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>8</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>45217</v>
       </c>
-      <c r="S34" s="4">
+      <c r="T34" s="4">
         <v>45228</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>12</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>5</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>1</v>
       </c>
-      <c r="AG34" s="15"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH34" s="15"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2023</v>
       </c>
@@ -3334,54 +3550,57 @@
       <c r="G35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="4">
         <v>45206</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="K35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
         <v>141</v>
       </c>
-      <c r="N35" s="7">
+      <c r="O35" s="7">
         <v>1</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>8</v>
       </c>
       <c r="Q35" s="1">
         <v>8</v>
       </c>
-      <c r="R35" s="16" t="s">
-        <v>24</v>
+      <c r="R35" s="1">
+        <v>8</v>
       </c>
       <c r="S35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
+      <c r="T35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V35" s="1">
         <v>0</v>
       </c>
-      <c r="AG35" s="15"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="15"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2023</v>
       </c>
@@ -3403,57 +3622,60 @@
       <c r="G36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="4">
         <v>45221</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
         <v>145</v>
       </c>
-      <c r="N36" s="7">
+      <c r="O36" s="7">
         <v>1</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>3</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>5</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>8</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <v>45236</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <v>2</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>4</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>0</v>
       </c>
-      <c r="X36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AG36" s="15"/>
-      <c r="AJ36" s="14"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="Y36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AH36" s="15"/>
+      <c r="AK36" s="14"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2023</v>
       </c>
@@ -3475,54 +3697,55 @@
       <c r="G37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="1"/>
+      <c r="I37" s="4">
         <v>45221</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="7">
+      <c r="O37" s="7">
         <v>1</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>4</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <v>3</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>7</v>
       </c>
-      <c r="R37" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="S37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0</v>
+      <c r="T37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
       </c>
-      <c r="AG37" s="15"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="15"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2023</v>
       </c>
@@ -3544,29 +3767,29 @@
       <c r="G38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="4">
         <v>45221</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="7">
+      <c r="O38" s="7">
         <v>1</v>
-      </c>
-      <c r="O38" s="1">
-        <v>8</v>
       </c>
       <c r="P38" s="1">
         <v>8</v>
@@ -3574,24 +3797,27 @@
       <c r="Q38" s="1">
         <v>8</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="1">
+        <v>8</v>
+      </c>
+      <c r="S38" s="4">
         <v>45230</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <v>45233</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <v>4</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>1</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>0</v>
       </c>
-      <c r="AG38" s="15"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH38" s="15"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>2024</v>
       </c>
@@ -3611,56 +3837,59 @@
       <c r="G39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I39" s="4">
         <v>45541</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="7">
+      <c r="O39" s="7">
         <v>1</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>5</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <v>2</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>7</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>45545</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <v>45546</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>2</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>6</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2024</v>
       </c>
@@ -3682,53 +3911,56 @@
       <c r="G40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" s="4">
         <v>45541</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="K40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
         <v>159</v>
       </c>
-      <c r="N40" s="7">
+      <c r="O40" s="7">
         <v>1</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>4</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <v>3</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>7</v>
       </c>
-      <c r="R40" s="12">
+      <c r="S40" s="12">
         <v>45545</v>
       </c>
-      <c r="S40" s="12">
+      <c r="T40" s="12">
         <v>45552</v>
-      </c>
-      <c r="T40" s="1">
-        <v>7</v>
       </c>
       <c r="U40" s="1">
         <v>7</v>
       </c>
       <c r="V40" s="1">
+        <v>7</v>
+      </c>
+      <c r="W40" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>2024</v>
       </c>
@@ -3748,51 +3980,54 @@
       <c r="G41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="4">
         <v>45541</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
         <v>162</v>
       </c>
-      <c r="N41" s="7">
+      <c r="O41" s="7">
         <v>1</v>
-      </c>
-      <c r="O41" s="1">
-        <v>2</v>
       </c>
       <c r="P41" s="1">
         <v>2</v>
       </c>
       <c r="Q41" s="1">
+        <v>2</v>
+      </c>
+      <c r="R41" s="1">
         <v>4</v>
-      </c>
-      <c r="R41" s="4">
-        <v>45546</v>
       </c>
       <c r="S41" s="4">
         <v>45546</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="4">
+        <v>45546</v>
+      </c>
+      <c r="U41" s="1">
         <v>1</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>3</v>
       </c>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>2024</v>
       </c>
@@ -3814,53 +4049,56 @@
       <c r="G42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="4">
         <v>45562</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
         <v>165</v>
       </c>
-      <c r="N42" s="7">
+      <c r="O42" s="7">
         <v>1</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>3</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>5</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>8</v>
-      </c>
-      <c r="R42" s="4">
-        <v>45566</v>
       </c>
       <c r="S42" s="4">
         <v>45566</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="4">
+        <v>45566</v>
+      </c>
+      <c r="U42" s="1">
         <v>1</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>4</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>2024</v>
       </c>
@@ -3882,53 +4120,56 @@
       <c r="G43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" s="4">
         <v>45562</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
         <v>168</v>
       </c>
-      <c r="N43" s="7">
+      <c r="O43" s="7">
         <v>1</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>5</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <v>3</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="R43" s="1">
         <v>8</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>45563</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <v>45574</v>
       </c>
-      <c r="T43" s="1">
+      <c r="U43" s="1">
         <v>12</v>
       </c>
-      <c r="U43" s="1">
+      <c r="V43" s="1">
         <v>6</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>2024</v>
       </c>
@@ -3941,454 +4182,464 @@
       <c r="D44" s="4">
         <v>45550</v>
       </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
       <c r="F44" s="1">
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" s="4">
         <v>45562</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
         <v>170</v>
       </c>
-      <c r="N44" s="7">
+      <c r="O44" s="7">
         <v>1</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>3</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <v>2</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>5</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>45568</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <v>45573</v>
       </c>
-      <c r="T44" s="1">
+      <c r="U44" s="1">
         <v>6</v>
       </c>
-      <c r="U44" s="1">
+      <c r="V44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="E48" s="14"/>
-      <c r="V48" s="14"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="14"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="E49" s="14"/>
-      <c r="V49" s="14"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="14"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="E50" s="14"/>
-      <c r="V50" s="14"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="14"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="E51" s="14"/>
-      <c r="V51" s="14"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="14"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="E52" s="14"/>
-      <c r="V52" s="14"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="E53" s="14"/>
-      <c r="V53" s="14"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="14"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="E54" s="14"/>
-      <c r="V54" s="14"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="E55" s="14"/>
-      <c r="V55" s="14"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="14"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="E56" s="14"/>
-      <c r="V56" s="14"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="14"/>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="E57" s="14"/>
-      <c r="V57" s="14"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="14"/>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="E58" s="14"/>
-      <c r="V58" s="14"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="14"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="E59" s="14"/>
-      <c r="V59" s="14"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="14"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="E60" s="14"/>
-      <c r="V60" s="14"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="14"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="E61" s="14"/>
-      <c r="V61" s="14"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="14"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="E62" s="14"/>
-      <c r="V62" s="14"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="14"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="E63" s="14"/>
-      <c r="V63" s="14"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="14"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
-      <c r="V64" s="14"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="14"/>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
-      <c r="V65" s="14"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="14"/>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
-      <c r="V66" s="14"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="14"/>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
-      <c r="V67" s="14"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="14"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
-      <c r="V68" s="14"/>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="14"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
-      <c r="V69" s="14"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="14"/>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
-      <c r="V70" s="14"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="14"/>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
-      <c r="V71" s="14"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="14"/>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
-      <c r="V72" s="14"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="14"/>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B73" s="15"/>
-      <c r="V73" s="14"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="14"/>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B74" s="15"/>
-      <c r="V74" s="14"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="14"/>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B75" s="15"/>
-      <c r="V75" s="14"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="14"/>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
-      <c r="V76" s="14"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="14"/>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
-      <c r="V77" s="14"/>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="14"/>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
-      <c r="V78" s="14"/>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W78" s="14"/>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="15"/>
-      <c r="V79" s="14"/>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W79" s="14"/>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B80" s="15"/>
-      <c r="V80" s="14"/>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="14"/>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="15"/>
-      <c r="V81" s="14"/>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="14"/>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="15"/>
-      <c r="V82" s="14"/>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="14"/>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="V83" s="14"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="14"/>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="15"/>
-      <c r="V84" s="14"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="14"/>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="15"/>
-      <c r="V85" s="14"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="14"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="V86" s="14"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="14"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B87" s="15"/>
-      <c r="V87" s="14"/>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="14"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
-      <c r="V88" s="14"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="14"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
-      <c r="V89" s="14"/>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="14"/>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
-      <c r="V90" s="14"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="14"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
-      <c r="V91" s="14"/>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="14"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
-      <c r="V92" s="14"/>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="14"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
-      <c r="V93" s="14"/>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="14"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
-      <c r="V94" s="14"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="14"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" s="15"/>
-      <c r="V95" s="14"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="14"/>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B96" s="15"/>
-      <c r="V96" s="14"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="14"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
-      <c r="V97" s="14"/>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="14"/>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B98" s="15"/>
-      <c r="V98" s="14"/>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="14"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
-      <c r="V99" s="14"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="14"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B103" s="15"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B104" s="15"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B106" s="15"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B109" s="15"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
       <c r="G114" s="14"/>
-      <c r="R114" s="14"/>
+      <c r="H114" s="14"/>
       <c r="S114" s="14"/>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T114" s="14"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="15"/>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="15"/>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B123" s="15"/>
-      <c r="K123" s="14"/>
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
-      <c r="Q123" s="14"/>
-    </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N123" s="14"/>
+      <c r="R123" s="14"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="15"/>
-      <c r="K124" s="14"/>
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
-      <c r="Q124" s="14"/>
-    </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N124" s="14"/>
+      <c r="R124" s="14"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="15"/>
-      <c r="K125" s="14"/>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
-      <c r="Q125" s="14"/>
-    </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N125" s="14"/>
+      <c r="R125" s="14"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="15"/>
-      <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
-      <c r="Q126" s="14"/>
-    </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N126" s="14"/>
+      <c r="R126" s="14"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B127" s="15"/>
-      <c r="K127" s="14"/>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
-      <c r="Q127" s="14"/>
-    </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N127" s="14"/>
+      <c r="R127" s="14"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B128" s="15"/>
-      <c r="K128" s="14"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
-      <c r="Q128" s="14"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N128" s="14"/>
+      <c r="R128" s="14"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="15"/>
-      <c r="K129" s="14"/>
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
-      <c r="Q129" s="14"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N129" s="14"/>
+      <c r="R129" s="14"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="15"/>
-      <c r="K130" s="14"/>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
-      <c r="Q130" s="14"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="N130" s="14"/>
+      <c r="R130" s="14"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="15"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="15"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="15"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="15"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="15"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="15"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="15"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="15"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="15"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="15"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B141" s="15"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B142" s="15"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B143" s="15"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B144" s="15"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ44" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
+  <autoFilter ref="A1:AK44" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_experiment_data.xlsx
+++ b/Compiled_experiment_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18335A50-EECB-3843-A233-26A9D6D56167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED46EBE-04CB-2B43-A125-4371814A7CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AK$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="202">
   <si>
     <t>Year</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Hatch_end</t>
   </si>
   <si>
-    <t>Hatch_spread</t>
-  </si>
-  <si>
     <t>Hatched</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>H1,H2,H4,H5,H6,H7</t>
   </si>
   <si>
-    <t>EGGS HELD, REPLACED WITH A FEW FROM B DURING HOLDING. NEST FAILED ON 19TH</t>
-  </si>
-  <si>
     <t>SY1 C along fence</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>ALL REMOVED</t>
   </si>
   <si>
-    <t xml:space="preserve">All eggs were removed and distributed to other nests. </t>
-  </si>
-  <si>
     <t xml:space="preserve">SPB W </t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>V1,V7,V3,V6,U5,V2,U10,V4,U8</t>
   </si>
   <si>
-    <t xml:space="preserve">SWAP AND HOLDING OF EGGS </t>
-  </si>
-  <si>
     <t>STAFF3 NW</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>AO4,AQ8,AO6,AO9,AV5</t>
   </si>
   <si>
-    <t>MORE THAN ONE TRANSFER</t>
-  </si>
-  <si>
     <t>CAMP PADDOCK</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>AG2,AG3,AG5,AG7,AM1,AM2,AM3</t>
   </si>
   <si>
-    <t>DOUBLE CHECK WHAT HAPPENED TO AG5. HATCHING RECORDS UNCLEAR</t>
-  </si>
-  <si>
     <t>North Coast Southwest-Centre along fence</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
     <t xml:space="preserve">N3,N6,L3L4,L5, </t>
   </si>
   <si>
-    <t>I THINK CLUTCH SIZE IS 5</t>
-  </si>
-  <si>
     <t>CACT FIELDS BY FENCE TO RF</t>
   </si>
   <si>
@@ -278,9 +257,6 @@
     <t>G1,G2,G3,G4,G5,G6,G7,G8,B4,B5</t>
   </si>
   <si>
-    <t>DOUBLE CHECK CLUTCH SIZE</t>
-  </si>
-  <si>
     <t>TRIG NWC</t>
   </si>
   <si>
@@ -344,9 +320,6 @@
     <t>AR2,AR3,AR5,AR7,AR8,AR9,AR10,AR11,AR12,AW1,AW3,AW5</t>
   </si>
   <si>
-    <t>CLUTCH SIZE OF 12 STILL?</t>
-  </si>
-  <si>
     <t>M16 SW CORNER</t>
   </si>
   <si>
@@ -512,9 +485,6 @@
     <t>I6,I7,K3,C1,C3,C5,C8</t>
   </si>
   <si>
-    <t>TN2 died, K3 died hatching</t>
-  </si>
-  <si>
     <t>West Hay back fence</t>
   </si>
   <si>
@@ -534,9 +504,6 @@
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>W1,W3,W7,W9,AJ3,AJ5,AJ8</t>
   </si>
   <si>
     <t>M16 East</t>
@@ -701,6 +668,51 @@
       <t>Y/YN</t>
     </r>
   </si>
+  <si>
+    <t>EGGS HELD, REPLACED WITH A FEW FROM B DURING HOLDING. NEST FAILED ON 19TH. EXCLUDED FROM ORIGINAL ANALYSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL EGGS WERE REMOVED AND PLACED IN OTHER NESTS AFTER THIS ONE WAS ABANDONED. </t>
+  </si>
+  <si>
+    <t>NEST NOT INCLUDED IN ANALYSES. JUST USED FOR EXTRA EGG SWAPPING I GUESS?</t>
+  </si>
+  <si>
+    <t>CLUTCH SIZE OF 11 OR 12?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNCLEAR CLUTCH SIZE. WHAT HAPPENED TO EGG G7 AND G8. ONE HATCHED NOT SURE ABOUT THE OTHER. </t>
+  </si>
+  <si>
+    <t>NOT SURE WHY THIS ISN'T INCLUDED IN ANALYSES? NO SURVIVAL DATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRA NEST USED FOR IT'S EGGS. NOT INCLUDED IN ANALYSES. </t>
+  </si>
+  <si>
+    <t>W1,W3,W7,W8, W9,AJ3,AJ5,AJ8</t>
+  </si>
+  <si>
+    <t>4?</t>
+  </si>
+  <si>
+    <t>TN2 DIED. K3 DIED DURING HATCHING. CLUTCH SIZE UNCLEAR. THEY INTERACTED A LOT WITH NEST O AND AZ</t>
+  </si>
+  <si>
+    <t>AG5 GONE ON SEPT 17TH.</t>
+  </si>
+  <si>
+    <t>CLUTCH SIZE OF 5 OR 6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDATED DURING HATCHING. WILL EXCLUDE FROM ANALYSES. </t>
+  </si>
+  <si>
+    <t>Estimated_Hatch_Spread</t>
+  </si>
+  <si>
+    <t>Actual_hatch_spread</t>
+  </si>
 </sst>
 </file>
 
@@ -739,12 +751,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -759,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,6 +827,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,11 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}">
-  <dimension ref="A1:AK145"/>
+  <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,17 +1162,17 @@
     <col min="11" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.83203125" customWidth="1"/>
     <col min="15" max="15" width="5.1640625" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="5.83203125" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1213,27 +1234,30 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
-        <v>173</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>43334</v>
@@ -1243,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="4">
@@ -1253,16 +1277,16 @@
         <v>43350</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="7">
         <v>1</v>
@@ -1277,33 +1301,34 @@
         <v>6</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3">
         <v>43330</v>
@@ -1313,26 +1338,26 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="4">
         <v>43346</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="7">
         <v>1</v>
@@ -1347,33 +1372,34 @@
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>43348</v>
@@ -1383,28 +1409,28 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I4" s="4">
         <v>43356</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
@@ -1424,28 +1450,26 @@
       <c r="T4" s="8">
         <v>43380</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="8"/>
+      <c r="V4" s="1">
         <v>4</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>7</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>3</v>
       </c>
-      <c r="X4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
         <v>43330</v>
@@ -1455,28 +1479,28 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1496,25 +1520,26 @@
       <c r="T5" s="4">
         <v>43367</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="4"/>
+      <c r="V5" s="1">
         <v>4</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>7</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>43356</v>
@@ -1524,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4">
@@ -1534,16 +1559,16 @@
         <v>43373</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1">
         <v>2</v>
@@ -1563,28 +1588,26 @@
       <c r="T6" s="4">
         <v>43345</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="4"/>
+      <c r="V6" s="1">
         <v>3</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>5</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>2</v>
       </c>
-      <c r="X6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>43358</v>
@@ -1594,26 +1617,26 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="4">
         <v>43360</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
@@ -1628,30 +1651,31 @@
         <v>9</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2018</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>43351</v>
@@ -1661,26 +1685,26 @@
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="4">
         <v>43360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="7">
         <v>1</v>
@@ -1700,28 +1724,29 @@
       <c r="T8" s="4">
         <v>43375</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="4"/>
+      <c r="V8" s="1">
         <v>5</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>6</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>3</v>
       </c>
-      <c r="X8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>43355</v>
@@ -1731,26 +1756,26 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="4">
         <v>43360</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O9" s="7">
         <v>1</v>
@@ -1765,30 +1790,34 @@
         <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3">
         <v>43362</v>
@@ -1798,26 +1827,26 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O10" s="7">
         <v>0</v>
@@ -1837,25 +1866,26 @@
       <c r="T10" s="4">
         <v>43393</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="4"/>
+      <c r="V10" s="1">
         <v>5</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>7</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3">
         <v>43350</v>
@@ -1865,28 +1895,28 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O11" s="7">
         <v>0</v>
@@ -1906,25 +1936,26 @@
       <c r="T11" s="8">
         <v>43374</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="8"/>
+      <c r="V11" s="1">
         <v>3</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>6</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3">
         <v>43341</v>
@@ -1934,26 +1965,26 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="4">
         <v>43344</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O12" s="7">
         <v>1</v>
@@ -1973,25 +2004,26 @@
       <c r="T12" s="8">
         <v>43350</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="8"/>
+      <c r="V12" s="1">
         <v>5</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>6</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2018</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3">
         <v>43366</v>
@@ -2001,26 +2033,26 @@
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O13" s="7">
         <v>0</v>
@@ -2040,25 +2072,26 @@
       <c r="T13" s="8">
         <v>43393</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="8"/>
+      <c r="V13" s="1">
         <v>4</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>5</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2018</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4">
         <v>43341</v>
@@ -2068,28 +2101,28 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="I14" s="4">
         <v>43344</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O14" s="7">
         <v>1</v>
@@ -2100,7 +2133,7 @@
       <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="19">
         <v>6</v>
       </c>
       <c r="S14" s="4">
@@ -2109,28 +2142,29 @@
       <c r="T14" s="4">
         <v>43345</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="4"/>
+      <c r="V14" s="1">
         <v>4</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>5</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>3</v>
       </c>
-      <c r="X14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2018</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3">
         <v>43330</v>
@@ -2140,10 +2174,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I15" s="4">
         <v>43342</v>
@@ -2152,16 +2186,16 @@
         <v>43344</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O15" s="1">
         <v>2</v>
@@ -2181,28 +2215,29 @@
       <c r="T15" s="8">
         <v>43359</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="8"/>
+      <c r="V15" s="1">
         <v>10</v>
-      </c>
-      <c r="V15" s="1">
-        <v>2</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
       </c>
-      <c r="X15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2018</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3">
         <v>43333</v>
@@ -2212,28 +2247,28 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="I16" s="4">
         <v>43340</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O16" s="7">
         <v>1</v>
@@ -2244,7 +2279,7 @@
       <c r="Q16" s="1">
         <v>8</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="19">
         <v>8</v>
       </c>
       <c r="S16" s="8">
@@ -2253,28 +2288,29 @@
       <c r="T16" s="8">
         <v>43354</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="8"/>
+      <c r="V16" s="1">
         <v>14</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>6</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>2</v>
       </c>
-      <c r="X16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2018</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3">
         <v>43347</v>
@@ -2284,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="4">
@@ -2294,16 +2330,16 @@
         <v>43360</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O17" s="1">
         <v>2</v>
@@ -2323,25 +2359,26 @@
       <c r="T17" s="8">
         <v>43380</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="8"/>
+      <c r="V17" s="1">
         <v>9</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>5</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3">
         <v>43347</v>
@@ -2351,26 +2388,26 @@
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4">
         <v>43360</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O18" s="7">
         <v>1</v>
@@ -2390,25 +2427,26 @@
       <c r="T18" s="8">
         <v>43382</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="8"/>
+      <c r="V18" s="1">
         <v>12</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>3</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3">
         <v>43348</v>
@@ -2418,28 +2456,28 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I19" s="4">
         <v>43360</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O19" s="7">
         <v>1</v>
@@ -2459,25 +2497,26 @@
       <c r="T19" s="8">
         <v>43377</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="8"/>
+      <c r="V19" s="1">
         <v>12</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>4</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3">
         <v>43360</v>
@@ -2487,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I20" s="4">
         <v>43365</v>
@@ -2499,16 +2538,16 @@
         <v>43370</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O20" s="7">
         <v>2</v>
@@ -2528,23 +2567,27 @@
       <c r="T20" s="8">
         <v>43378</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="8"/>
+      <c r="V20" s="1">
         <v>5</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>4</v>
       </c>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="X20" s="1"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3">
         <v>43360</v>
@@ -2554,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I21" s="4">
         <v>43365</v>
@@ -2566,16 +2609,16 @@
         <v>43368</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O21" s="1">
         <v>2</v>
@@ -2595,25 +2638,26 @@
       <c r="T21" s="8">
         <v>43385</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="8"/>
+      <c r="V21" s="1">
         <v>8</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>5</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3">
         <v>43359</v>
@@ -2623,26 +2667,26 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
         <v>43370</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O22" s="7">
         <v>1</v>
@@ -2653,7 +2697,7 @@
       <c r="Q22" s="1">
         <v>9</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="19">
         <v>11</v>
       </c>
       <c r="S22" s="8">
@@ -2662,28 +2706,29 @@
       <c r="T22" s="8">
         <v>43387</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="8"/>
+      <c r="V22" s="1">
         <v>10</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>5</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D23" s="3">
         <v>43350</v>
@@ -2693,10 +2738,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="I23" s="4">
         <v>43358</v>
@@ -2705,16 +2750,16 @@
         <v>43360</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O23" s="1">
         <v>2</v>
@@ -2734,25 +2779,26 @@
       <c r="T23" s="8">
         <v>43381</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="8"/>
+      <c r="V23" s="1">
         <v>12</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>5</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4">
         <v>43362</v>
@@ -2762,28 +2808,28 @@
         <v>7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I24" s="4">
         <v>43365</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -2803,25 +2849,26 @@
       <c r="T24" s="8">
         <v>43381</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="8"/>
+      <c r="V24" s="1">
         <v>9</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>6</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2018</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D25" s="3">
         <v>43360</v>
@@ -2831,10 +2878,10 @@
         <v>7</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I25" s="4">
         <v>43362</v>
@@ -2846,13 +2893,13 @@
         <v>43373</v>
       </c>
       <c r="L25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O25" s="7">
         <v>3</v>
@@ -2872,25 +2919,26 @@
       <c r="T25" s="8">
         <v>43377</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="8"/>
+      <c r="V25" s="1">
         <v>15</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>2</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2023</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D26" s="11">
         <v>45157</v>
@@ -2902,26 +2950,26 @@
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="4">
         <v>45173</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O26" s="7">
         <v>1</v>
@@ -2941,28 +2989,29 @@
       <c r="T26" s="12">
         <v>45189</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="12"/>
+      <c r="V26" s="13">
         <v>5</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>4</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>1</v>
       </c>
-      <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AH26" s="15"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF26" s="14"/>
+      <c r="AI26" s="15"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2023</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D27" s="11">
         <v>45157</v>
@@ -2974,26 +3023,26 @@
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="4">
         <v>45173</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O27" s="7">
         <v>1</v>
@@ -3013,28 +3062,29 @@
       <c r="T27" s="12">
         <v>45185</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="12"/>
+      <c r="V27" s="13">
         <v>1</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AH27" s="15"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF27" s="14"/>
+      <c r="AI27" s="15"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2023</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D28" s="11">
         <v>45158</v>
@@ -3044,28 +3094,28 @@
         <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I28" s="4">
         <v>45173</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O28" s="7">
         <v>1</v>
@@ -3085,28 +3135,32 @@
       <c r="T28" s="8">
         <v>45182</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="8"/>
+      <c r="V28" s="13">
         <v>3</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>4</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="14"/>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
       <c r="AE28" s="14"/>
-      <c r="AH28" s="15"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AF28" s="14"/>
+      <c r="AI28" s="15"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2023</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="11">
         <v>45158</v>
@@ -3118,28 +3172,28 @@
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I29" s="4">
         <v>45173</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O29" s="7">
         <v>1</v>
@@ -3159,27 +3213,28 @@
       <c r="T29" s="8">
         <v>45183</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="8"/>
+      <c r="V29" s="1">
         <v>11</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>5</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>4</v>
       </c>
-      <c r="AD29" s="14"/>
-      <c r="AH29" s="15"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE29" s="14"/>
+      <c r="AI29" s="15"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2023</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D30" s="11">
         <v>45170</v>
@@ -3191,26 +3246,26 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="4">
         <v>45184</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O30" s="7">
         <v>1</v>
@@ -3230,27 +3285,28 @@
       <c r="T30" s="8">
         <v>45203</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="8"/>
+      <c r="V30" s="1">
         <v>5</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>3</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="14"/>
-      <c r="AH30" s="15"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE30" s="14"/>
+      <c r="AI30" s="15"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2023</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4">
         <v>45176</v>
@@ -3262,26 +3318,26 @@
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="4">
         <v>45184</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O31" s="7">
         <v>1</v>
@@ -3301,27 +3357,28 @@
       <c r="T31" s="12">
         <v>45207</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="12"/>
+      <c r="V31" s="1">
         <v>6</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>3</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="14"/>
-      <c r="AH31" s="15"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AE31" s="14"/>
+      <c r="AI31" s="15"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2023</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D32" s="4">
         <v>45174</v>
@@ -3333,28 +3390,28 @@
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I32" s="4">
         <v>45184</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O32" s="7">
         <v>1</v>
@@ -3374,27 +3431,28 @@
       <c r="T32" s="12">
         <v>45203</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="12"/>
+      <c r="V32" s="1">
         <v>4</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>7</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="14"/>
-      <c r="AH32" s="15"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AE32" s="14"/>
+      <c r="AI32" s="15"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2023</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D33" s="11">
         <v>45198</v>
@@ -3406,26 +3464,26 @@
         <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="4">
         <v>45206</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O33" s="7">
         <v>1</v>
@@ -3445,59 +3503,60 @@
       <c r="T33" s="4">
         <v>45226</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="4"/>
+      <c r="V33" s="1">
         <v>3</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>4</v>
       </c>
-      <c r="W33" s="1">
+      <c r="X33" s="1">
         <v>0</v>
       </c>
-      <c r="AH33" s="15"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI33" s="15"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D34" s="11">
         <v>45204</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F34" s="1">
         <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I34" s="4">
         <v>45206</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O34" s="7">
         <v>1</v>
@@ -3517,59 +3576,60 @@
       <c r="T34" s="4">
         <v>45228</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="4"/>
+      <c r="V34" s="1">
         <v>12</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>5</v>
       </c>
-      <c r="W34" s="1">
+      <c r="X34" s="1">
         <v>1</v>
       </c>
-      <c r="AH34" s="15"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI34" s="15"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2023</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4">
         <v>45204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I35" s="4">
         <v>45206</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O35" s="7">
         <v>1</v>
@@ -3584,64 +3644,65 @@
         <v>8</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U35" s="16"/>
+      <c r="V35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
       </c>
-      <c r="AH35" s="15"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="15"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2023</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D36" s="11">
         <v>45211</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I36" s="4">
         <v>45221</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O36" s="7">
         <v>1</v>
@@ -3656,65 +3717,66 @@
         <v>8</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="T36" s="4">
         <v>45236</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36" s="4"/>
+      <c r="V36" s="1">
         <v>2</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>4</v>
       </c>
-      <c r="W36" s="1">
+      <c r="X36" s="1">
         <v>0</v>
       </c>
-      <c r="Y36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AH36" s="15"/>
-      <c r="AK36" s="14"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Z36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AI36" s="15"/>
+      <c r="AL36" s="14"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2023</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D37" s="11">
         <v>45216</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="4">
         <v>45221</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O37" s="7">
         <v>1</v>
@@ -3729,31 +3791,32 @@
         <v>7</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U37" s="16"/>
+      <c r="V37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
       </c>
-      <c r="AH37" s="15"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="15"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2023</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D38" s="11">
         <v>45219</v>
@@ -3765,28 +3828,28 @@
         <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I38" s="4">
         <v>45221</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O38" s="7">
         <v>1</v>
@@ -3806,57 +3869,60 @@
       <c r="T38" s="4">
         <v>45233</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="4"/>
+      <c r="V38" s="1">
         <v>4</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>1</v>
       </c>
-      <c r="W38" s="1">
+      <c r="X38" s="1">
         <v>0</v>
       </c>
-      <c r="AH38" s="15"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AI38" s="15"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>2024</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D39" s="17">
         <v>45528</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F39" s="1">
         <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I39" s="4">
         <v>45541</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O39" s="7">
         <v>1</v>
@@ -3877,27 +3943,30 @@
         <v>45546</v>
       </c>
       <c r="U39" s="1">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1">
         <v>2</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>6</v>
       </c>
-      <c r="W39" s="1">
+      <c r="X39" s="1">
         <v>0</v>
       </c>
-      <c r="X39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2024</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D40" s="17">
         <v>45527</v>
@@ -3909,28 +3978,28 @@
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I40" s="4">
         <v>45541</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O40" s="7">
         <v>1</v>
@@ -3951,24 +4020,27 @@
         <v>45552</v>
       </c>
       <c r="U40" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V40" s="1">
         <v>7</v>
       </c>
       <c r="W40" s="1">
+        <v>7</v>
+      </c>
+      <c r="X40" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>2024</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D41" s="17">
         <v>45528</v>
@@ -3978,28 +4050,28 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I41" s="4">
         <v>45541</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O41" s="7">
         <v>1</v>
@@ -4020,22 +4092,28 @@
         <v>45546</v>
       </c>
       <c r="U41" s="1">
+        <v>2</v>
+      </c>
+      <c r="V41" s="1">
         <v>1</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>3</v>
       </c>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="X41" s="1"/>
+      <c r="Y41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>2024</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D42" s="4">
         <v>45543</v>
@@ -4047,28 +4125,28 @@
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="I42" s="4">
         <v>45562</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O42" s="7">
         <v>1</v>
@@ -4089,24 +4167,30 @@
         <v>45566</v>
       </c>
       <c r="U42" s="1">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1">
         <v>1</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>4</v>
       </c>
-      <c r="W42" s="1">
+      <c r="X42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>2024</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4">
         <v>45556</v>
@@ -4118,28 +4202,28 @@
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>182</v>
       </c>
       <c r="I43" s="4">
         <v>45562</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O43" s="7">
         <v>1</v>
@@ -4160,24 +4244,27 @@
         <v>45574</v>
       </c>
       <c r="U43" s="1">
+        <v>11</v>
+      </c>
+      <c r="V43" s="1">
         <v>12</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>6</v>
       </c>
-      <c r="W43" s="1">
+      <c r="X43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>2024</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D44" s="4">
         <v>45550</v>
@@ -4189,28 +4276,28 @@
         <v>5</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I44" s="4">
         <v>45562</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="O44" s="7">
         <v>1</v>
@@ -4234,345 +4321,352 @@
         <v>6</v>
       </c>
       <c r="V44" s="1">
+        <v>6</v>
+      </c>
+      <c r="W44" s="1">
         <v>3</v>
       </c>
-      <c r="W44" s="1">
+      <c r="X44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="E48" s="14"/>
-      <c r="W48" s="14"/>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="14"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="E49" s="14"/>
-      <c r="W49" s="14"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="14"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="E50" s="14"/>
-      <c r="W50" s="14"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="14"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="E51" s="14"/>
-      <c r="W51" s="14"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="14"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="E52" s="14"/>
-      <c r="W52" s="14"/>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="14"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="E53" s="14"/>
-      <c r="W53" s="14"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="14"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="E54" s="14"/>
-      <c r="W54" s="14"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="14"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="E55" s="14"/>
-      <c r="W55" s="14"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="14"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="E56" s="14"/>
-      <c r="W56" s="14"/>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="14"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="E57" s="14"/>
-      <c r="W57" s="14"/>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="14"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="E58" s="14"/>
-      <c r="W58" s="14"/>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="14"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="E59" s="14"/>
-      <c r="W59" s="14"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="14"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="E60" s="14"/>
-      <c r="W60" s="14"/>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="14"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="E61" s="14"/>
-      <c r="W61" s="14"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="14"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="E62" s="14"/>
-      <c r="W62" s="14"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="14"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="E63" s="14"/>
-      <c r="W63" s="14"/>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="14"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
-      <c r="W64" s="14"/>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="14"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
-      <c r="W65" s="14"/>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="14"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
-      <c r="W66" s="14"/>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="14"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
-      <c r="W67" s="14"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="14"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
-      <c r="W68" s="14"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="14"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
-      <c r="W69" s="14"/>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="14"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
-      <c r="W70" s="14"/>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="14"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
-      <c r="W71" s="14"/>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="14"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
-      <c r="W72" s="14"/>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="14"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="15"/>
-      <c r="W73" s="14"/>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="14"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="15"/>
-      <c r="W74" s="14"/>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="14"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="15"/>
-      <c r="W75" s="14"/>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="14"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
-      <c r="W76" s="14"/>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="14"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
-      <c r="W77" s="14"/>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="14"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
-      <c r="W78" s="14"/>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="14"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="15"/>
-      <c r="W79" s="14"/>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="14"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="15"/>
-      <c r="W80" s="14"/>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="14"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="15"/>
-      <c r="W81" s="14"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="14"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" s="15"/>
-      <c r="W82" s="14"/>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="14"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="W83" s="14"/>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="14"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" s="15"/>
-      <c r="W84" s="14"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="14"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="15"/>
-      <c r="W85" s="14"/>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="14"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="W86" s="14"/>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="14"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="15"/>
-      <c r="W87" s="14"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="14"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
-      <c r="W88" s="14"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="14"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
-      <c r="W89" s="14"/>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="14"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
-      <c r="W90" s="14"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="14"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
-      <c r="W91" s="14"/>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="14"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
-      <c r="W92" s="14"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="14"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
-      <c r="W93" s="14"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="14"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
-      <c r="W94" s="14"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="14"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="15"/>
-      <c r="W95" s="14"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="14"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="15"/>
-      <c r="W96" s="14"/>
-    </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="14"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
-      <c r="W97" s="14"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="14"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="15"/>
-      <c r="W98" s="14"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="14"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
-      <c r="W99" s="14"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="14"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="15"/>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="15"/>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="15"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" s="15"/>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" s="15"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B113" s="15"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="S114" s="14"/>
       <c r="T114" s="14"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U114" s="14"/>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B115" s="15"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B117" s="15"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B123" s="15"/>
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
       <c r="R123" s="14"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B124" s="15"/>
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
       <c r="R124" s="14"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B125" s="15"/>
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="14"/>
       <c r="R125" s="14"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B126" s="15"/>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
       <c r="N126" s="14"/>
       <c r="R126" s="14"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B127" s="15"/>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
       <c r="R127" s="14"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B128" s="15"/>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
@@ -4639,7 +4733,7 @@
       <c r="B145" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK44" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
+  <autoFilter ref="A1:AL44" xr:uid="{255291DA-0306-0B4D-879D-64BC9391E36A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Compiled_experiment_data.xlsx
+++ b/Compiled_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED46EBE-04CB-2B43-A125-4371814A7CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CB082-CC7C-1F48-AA0B-FB6CDD1D24DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{BAD7D914-73E3-4243-B7D9-FB7210C6BDCF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
